--- a/AAA-Luban-Excel/Datas/Character.xlsx
+++ b/AAA-Luban-Excel/Datas/Character.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KaiJuNaibu\Desktop\Project\Project-A\AAA-Luban-Excel\Datas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6040AC2-D3B8-4118-8AA5-5C3B06F5A0FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView xWindow="810" yWindow="510" windowWidth="13680" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -203,14 +209,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,345 +226,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -572,251 +249,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -827,65 +262,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1135,40 +526,40 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:U6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:V6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="T5" sqref="T5:T6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="3" width="9" style="1"/>
     <col min="4" max="4" width="18" style="1" customWidth="1"/>
     <col min="5" max="5" width="23" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.75" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.46484375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.73046875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.1328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.73046875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.59765625" style="1" customWidth="1"/>
     <col min="11" max="12" width="9" style="1"/>
-    <col min="13" max="13" width="25.25" style="1" customWidth="1"/>
+    <col min="13" max="13" width="25.265625" style="1" customWidth="1"/>
     <col min="14" max="16" width="9" style="1"/>
-    <col min="17" max="17" width="26.625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="25.75" style="1" customWidth="1"/>
-    <col min="19" max="19" width="19.375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="26.59765625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="25.73046875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="19.3984375" style="1" customWidth="1"/>
     <col min="20" max="20" width="14" style="1" customWidth="1"/>
-    <col min="21" max="21" width="16.5" style="1" customWidth="1"/>
+    <col min="21" max="21" width="16.46484375" style="1" customWidth="1"/>
     <col min="22" max="22" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:21">
+    <row r="1" spans="1:21" ht="27" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1233,7 +624,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" ht="27" spans="1:21">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -1298,7 +689,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
@@ -1361,7 +752,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" ht="27" spans="1:21">
+    <row r="4" spans="1:21" ht="27" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>28</v>
       </c>
@@ -1426,7 +817,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="2:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>1001</v>
       </c>
@@ -1488,7 +879,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="6" spans="2:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>1002</v>
       </c>
@@ -1551,8 +942,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/AAA-Luban-Excel/Datas/Character.xlsx
+++ b/AAA-Luban-Excel/Datas/Character.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KaiJuNaibu\Desktop\Project\Project-A\AAA-Luban-Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6040AC2-D3B8-4118-8AA5-5C3B06F5A0FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626B4526-E29E-414E-82A4-F7C9CBAA1B7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="510" windowWidth="13680" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4080" yWindow="0" windowWidth="13680" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,8 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -131,9 +129,6 @@
     <t>描述</t>
   </si>
   <si>
-    <t>玩家与其的交互是哪一种</t>
-  </si>
-  <si>
     <t>语音包</t>
   </si>
   <si>
@@ -204,13 +199,17 @@
   </si>
   <si>
     <t>"KiraVoice"</t>
+  </si>
+  <si>
+    <t>spine动画的名字</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,6 +226,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -255,7 +262,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -263,6 +270,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -534,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5:T6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -765,56 +775,56 @@
       <c r="D4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="U4" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
@@ -822,16 +832,16 @@
         <v>1001</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="G5" s="1">
         <v>1.2</v>
@@ -852,7 +862,7 @@
         <v>100</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N5" s="1">
         <v>100</v>
@@ -884,16 +894,16 @@
         <v>1002</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="G6" s="1">
         <v>1.3</v>
@@ -914,7 +924,7 @@
         <v>100</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N6" s="1">
         <v>100</v>
